--- a/biology/Botanique/Eremurus/Eremurus.xlsx
+++ b/biology/Botanique/Eremurus/Eremurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremurus, les Érémurus ou lis des steppes, est un genre de plante vivace à racine charnue de la famille des liliacées. Les espèces sont originaires de l'Asie centrale et fleurissent en mai et juin[1], toutefois l'espèce Eremurus thiodanthus est endémique de Crimée, en Europe orientale, et d'autres espèces sont originaires d'Asie mineure. Pour avoir une belle floraison, il faut éviter de déterrer les racines. Les tiges florales peuvent atteindre jusqu'à 3 mètres de haut. Les feuilles sont caduques et commencent à se dessécher au début de la floraison.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremurus, les Érémurus ou lis des steppes, est un genre de plante vivace à racine charnue de la famille des liliacées. Les espèces sont originaires de l'Asie centrale et fleurissent en mai et juin, toutefois l'espèce Eremurus thiodanthus est endémique de Crimée, en Europe orientale, et d'autres espèces sont originaires d'Asie mineure. Pour avoir une belle floraison, il faut éviter de déterrer les racines. Les tiges florales peuvent atteindre jusqu'à 3 mètres de haut. Les feuilles sont caduques et commencent à se dessécher au début de la floraison.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 juil. 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 juil. 2010) :
 Eremurus afghanicus Gilli (1954)
-Eremurus aitchisonii Baker, J. (1880)[3]
+Eremurus aitchisonii Baker, J. (1880)
 Eremurus alaicus Khalk. (1985)
 Eremurus albertii Regel (1884)
 Eremurus × albocitrinus Baker (1879)
@@ -527,7 +541,7 @@
 Eremurus brachystemon Vved. (1946)
 Eremurus bucharicus Regel (1884)
 Eremurus candidus Vved. (1946)
-Eremurus cappadocicus J.Gay ex Baker, J. (1876)[3]
+Eremurus cappadocicus J.Gay ex Baker, J. (1876)
 Eremurus chinensis O.Fedtsch. (1907)
 Eremurus chloranthus Popov (1937)
 Eremurus comosus O.Fedtsch. (1904)
@@ -536,7 +550,7 @@
 Eremurus furseorum Wendelbo (1966)
 Eremurus fuscus (O.Fedtsch.) Vved. (1952)
 Eremurus hilariae Popov &amp; Vved. (1924)
-Eremurus himalaicus Baker, J. (1876)[3]
+Eremurus himalaicus Baker, J. (1876)
 Eremurus hissaricus Vved. (1946)
 Eremurus iae Vved. (1941)
 Eremurus inderiensis (M.Bieb.) Regel (1873)
@@ -556,7 +570,7 @@
 Eremurus persicus (Jaub. &amp; Spach) Boiss. (1846)
 Eremurus pubescens Vved. (1946)
 Eremurus rechingeri Wendelbo (1962)
-Eremurus regelii Vved.[4] (1928)
+Eremurus regelii Vved. (1928)
 Eremurus robustus (Regel) Regel (1873)
 Eremurus roseolus Vved. (1946)
 Eremurus saprjagajevii B.Fedtsch. (1935)
@@ -570,7 +584,7 @@
 Eremurus thiodanthus Juz. (1951)
 Eremurus tianschanicus Pazij &amp; Vved. ex Pavlov (1958)
 Eremurus turkestanicus Regel (1873)
-Eremurus wallii Rech.f.[5] (1950)
+Eremurus wallii Rech.f. (1950)
 Eremurus zangezuricus Mikheev (1996)
 Eremurus zenaidae Vved. (1952)
 Eremurus zoae Vved. (1971)
